--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -5,28 +5,92 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\PYTHON3\VALEO_GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\PYTHON3\VALEO_GA\VALEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28A07D-7B35-4D1F-8995-979881C87E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A8B708-7530-432C-8530-3D831D87C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
+    <sheet name="edges" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="nodes" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
+    <sheet name="tab (2)" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +98,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -51,12 +152,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,11 +558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -353,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -373,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -398,7 +620,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -410,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -418,13 +640,13 @@
         <v>-1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -479,4 +701,3391 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FB7AAE-8E71-4F58-9FEA-2934C7A8DE2C}">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>-1</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:R38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFFD723-4ED7-4633-B0FC-9CC3B95E506F}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE82D21-A7A6-43D9-8F27-8B56C3A10B92}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19597CEC-1082-4FF6-9BFC-563449B11918}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97ECE2-8F80-4E80-AB97-5009219CE9B6}">
+  <dimension ref="A1:AL3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="37" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7">
+        <v>1</v>
+      </c>
+      <c r="L1" s="7">
+        <v>1</v>
+      </c>
+      <c r="M1" s="7">
+        <v>1</v>
+      </c>
+      <c r="N1" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1" s="7">
+        <v>1</v>
+      </c>
+      <c r="P1" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>1</v>
+      </c>
+      <c r="R1" s="7">
+        <v>1</v>
+      </c>
+      <c r="S1" s="7">
+        <v>1</v>
+      </c>
+      <c r="T1" s="8">
+        <v>2</v>
+      </c>
+      <c r="U1" s="8">
+        <v>2</v>
+      </c>
+      <c r="V1" s="8">
+        <v>2</v>
+      </c>
+      <c r="W1" s="8">
+        <v>2</v>
+      </c>
+      <c r="X1" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="10"/>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3</v>
+      </c>
+      <c r="S2" s="3">
+        <v>4</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="10"/>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>5</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="13">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>5</v>
+      </c>
+      <c r="R3" s="13">
+        <v>4</v>
+      </c>
+      <c r="S3" s="13">
+        <v>5</v>
+      </c>
+      <c r="T3" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="U3" s="14">
+        <v>1</v>
+      </c>
+      <c r="V3" s="14">
+        <v>5</v>
+      </c>
+      <c r="W3" s="14">
+        <v>5</v>
+      </c>
+      <c r="X3" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="AF3" s="15">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="15">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AK3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626B087-C52F-4FC5-8436-6F3BA43FEB8D}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>